--- a/data/trans_camb/P5_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 8,59</t>
+          <t>-12,39; 10,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 12,08</t>
+          <t>-10,34; 12,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 7,7</t>
+          <t>-7,66; 8,18</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,03%</t>
+          <t>-1,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 18,01</t>
+          <t>-21,44; 20,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 29,51</t>
+          <t>-20,26; 32,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 16,72</t>
+          <t>-14,25; 17,65</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>5,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,47</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 17,75</t>
+          <t>-7,26; 18,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 7,82</t>
+          <t>-14,68; 5,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 9,47</t>
+          <t>-6,86; 10,45</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,46%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 38,28</t>
+          <t>-13,19; 41,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,82; 21,2</t>
+          <t>-31,25; 16,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 22,18</t>
+          <t>-13,59; 24,85</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>-6,8</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-3,8</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 3,36</t>
+          <t>-17,03; 4,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 6,17</t>
+          <t>-8,87; 7,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 2,72</t>
+          <t>-10,05; 2,63</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-18,28%</t>
+          <t>-15,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,94%</t>
+          <t>-2,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-10,44%</t>
+          <t>-8,66%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,16; 8,63</t>
+          <t>-36,32; 13,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 15,05</t>
+          <t>-18,25; 18,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 6,89</t>
+          <t>-21,57; 6,42</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,17</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 6,85</t>
+          <t>-11,36; 7,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 4,68</t>
+          <t>-10,16; 4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,93</t>
+          <t>-8,47; 3,67</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>-3,32%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>-6,75%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,68%</t>
+          <t>-4,74%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 14,96</t>
+          <t>-20,38; 15,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 12,69</t>
+          <t>-22,7; 12,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 6,86</t>
+          <t>-16,8; 8,68</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,69</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,58</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 9,02</t>
+          <t>-10,28; 9,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 7,41</t>
+          <t>-11,35; 6,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 5,14</t>
+          <t>-8,26; 4,71</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>-1,85%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-4,99%</t>
+          <t>-4,77%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>-3,37%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,84; 20,49</t>
+          <t>-19,5; 21,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 18,11</t>
+          <t>-23,45; 16,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 12,02</t>
+          <t>-16,8; 10,66</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,08</t>
+          <t>-4,89</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-1,18</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 6,61</t>
+          <t>-15,56; 5,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 11,75</t>
+          <t>-6,94; 10,97</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 7,01</t>
+          <t>-8,14; 5,49</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>-9,73%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-2,7%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 13,91</t>
+          <t>-29,2; 12,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 33,4</t>
+          <t>-16,03; 30,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,98; 17,51</t>
+          <t>-18,0; 13,38</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-1,37</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 1,99</t>
+          <t>-6,38; 2,79</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 2,81</t>
+          <t>-4,43; 2,79</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 1,41</t>
+          <t>-4,35; 1,75</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-4,66%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>-2,98%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 4,19</t>
+          <t>-12,46; 5,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 6,93</t>
+          <t>-10,12; 6,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 3,16</t>
+          <t>-9,05; 3,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_5-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P5_5-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,08</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.951386157338276</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7121522885380316</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.300313769999156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-12,39; 10,11</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-10,34; 12,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,66; 8,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.37750151905744</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-10.86564301909923</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.28723794461871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,97%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,26%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>8.345180304623895</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.00510811727693</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.512385852945723</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-21,44; 20,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-20,26; 32,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-14,25; 17,65</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.05455645134349665</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.01579844993535486</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02610067529105593</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>5,89</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2435677800279464</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2138843879429289</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1726901221735387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 18,98</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 5,94</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,86; 10,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1729773381011169</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3147355203087601</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1574859115990401</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,41%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-8,57%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>6.744325553051612</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.450699726864909</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.032150208884631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-13,19; 41,46</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-31,25; 16,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-13,59; 24,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.278358272314812</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-14.82206755992506</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.283453147742916</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-6,8</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,8</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>19.63339924084856</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.899157128102271</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.82688878839486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-17,03; 4,84</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,87; 7,65</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 2,63</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.1304957788791132</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.08396771195788105</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.04360193011440757</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-15,83%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,06%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-8,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1269167430878296</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3080879245117245</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1251547377555961</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-36,32; 13,35</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-18,25; 18,35</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-21,57; 6,42</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.4384144198125144</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1658770535099555</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2560904419308986</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-5.699590107460262</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.068320444408133</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.367005040376064</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-11,36; 7,27</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-10,16; 4,63</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 3,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-16.07375792301488</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.782365454655853</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-10.03745984666079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-3,32%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-6,75%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-4,74%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.345184554308156</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>7.543095994573935</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2.86076778605173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-20,38; 15,63</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-22,7; 12,79</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; 8,68</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.1327884196389781</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.02387030645183544</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.07678278207843089</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-1,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3441925423953573</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1850273852861297</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2177587407573155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-10,28; 9,15</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; 6,65</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 4,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.17462102020668</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.180363980372282</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.07449097043752803</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-1,85%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-4,77%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-3,37%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.57557872641595</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-2.716311384821635</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.590458941976548</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-19,5; 21,43</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-23,45; 16,36</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-16,8; 10,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-12.49504051875826</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-10.18877083424526</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-8.63296364048932</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-4,89</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-1,18</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.44577634207764</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>4.743744378559681</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>3.143621966775563</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-15,56; 5,99</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-6,94; 10,97</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 5,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.05100277522661501</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.06522183488886614</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.05648714633519277</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-9,73%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>3,99%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-2,7%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2252506364185471</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2284405282294217</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1737722670507194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-29,2; 12,52</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-16,03; 30,95</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-18,0; 13,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1375261956576374</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1220603150360038</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.07588816112459038</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-0,98</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-0.806014624073953</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-1.975067924662899</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-1.437837578813456</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-6,38; 2,79</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 2,79</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-4,35; 1,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-10.47540635689631</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-11.38820042886907</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-8.437433258280352</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>-3,57%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-2,32%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-2,98%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>9.314499009647893</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>6.695975004074123</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>4.809992203065018</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 5,84</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-10,12; 6,68</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 3,92</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.01643014567656374</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.04414486048549369</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.03064508469803628</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.1969709995635904</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.2341605780544962</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.1666980869579709</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.2140251300165572</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.1643728098135678</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.1118823018637522</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-4.211271006895522</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>1.266622363173014</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-1.059336596036192</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-15.36050403381082</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-7.434419270153237</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-8.302282986480753</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>7.463689064150326</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>10.59440313673189</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>6.227976916484374</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.08374422986367738</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.03244126712441656</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.0241554118671956</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2856636217693742</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.1763736356894119</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.1778850445916663</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.1599096030393317</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0.2951598130105718</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0.1480287462303359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>-1.78980439016066</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-1.100126456675976</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-1.436996129303186</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-6.496425020343975</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-4.65498292346355</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-4.49418648778917</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>2.967865451496619</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>2.63706799173441</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>1.631045215144</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>-0.03616105972583614</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.02588044959662568</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.03129282791041883</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.1268870520842476</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.1029248763840513</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.09554769415769891</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.06392786686288532</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0.06615060567969967</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.03646643428362732</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
